--- a/Country-specific infection rates.xlsx
+++ b/Country-specific infection rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waith\OneDrive\Documents\GitHub\Covid19\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52798C94-196F-4E9F-9502-0DAEE1B6F4E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1B1E15-3426-4BB4-93AB-3738775B0388}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -719,6 +719,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B5429C9A-1D6C-400E-9631-C0BDE653FE88}" name="Table1" displayName="Table1" ref="A1:D1048576" totalsRowShown="0">
+  <autoFilter ref="A1:D1048576" xr:uid="{B5429C9A-1D6C-400E-9631-C0BDE653FE88}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{76A878E5-156C-4430-BA0A-CEF1EACFC11B}" name="location"/>
+    <tableColumn id="2" xr3:uid="{976AA5AD-DEC4-4607-A539-DF3D22999530}" name="HighestInfectionCount"/>
+    <tableColumn id="3" xr3:uid="{03B5C22E-24C1-4294-9959-B667432BCAD0}" name="population"/>
+    <tableColumn id="4" xr3:uid="{FEA65EE9-B949-47A5-AFD7-924DFBD8926D}" name="Infection_rate"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1020,14 +1033,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.140625" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
   </cols>
@@ -3988,5 +4001,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>